--- a/API_2/test_cases/api_test.xlsx
+++ b/API_2/test_cases/api_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>CaseId</t>
   </si>
@@ -60,49 +60,52 @@
     <t>get</t>
   </si>
   <si>
+    <t>{'mobilephone':'tel','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status':1,'code':'10001','data': None,'msg':'注册成功'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>不输入手机号</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status':0,'code':'20103','data': None,'msg':'手机号不能为空'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>不输入密码</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18688775656','pwd':''}</t>
+  </si>
+  <si>
+    <t>{'status':0,'code':'20103','data': None,'msg':'密码不能为空'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+  </si>
+  <si>
+    <t>输入已存在的手机号</t>
+  </si>
+  <si>
     <t>{'mobilephone':'15921919560','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>{'status':1,'code':'10001','data': None,'msg':'注册成功'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>不输入手机号</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>{'status':0,'code':'20103','data': None,'msg':'手机号不能为空'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>不输入密码</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'18688775656','pwd':''}</t>
-  </si>
-  <si>
-    <t>{'status':0,'code':'20103','data': None,'msg':'密码不能为空'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
-  </si>
-  <si>
-    <t>输入已存在的手机号</t>
   </si>
   <si>
     <t>{'status':0,'code':'20110','data': None,'msg':'手机号码已被注册'}</t>
@@ -316,6 +319,20 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -324,7 +341,31 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -346,7 +387,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -355,6 +396,29 @@
       <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,68 +433,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -450,12 +453,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -468,169 +615,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,41 +662,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,6 +693,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,17 +723,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -748,11 +730,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,53 +763,53 @@
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
-    <xf borderId="0" fillId="26" fontId="5" numFmtId="0"/>
-    <xf borderId="6" fillId="20" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0"/>
+    <xf borderId="6" fillId="12" fontId="14" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
-    <xf borderId="0" fillId="15" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
-    <xf borderId="0" fillId="22" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="4" fillId="14" fontId="0" numFmtId="0"/>
+    <xf borderId="8" fillId="27" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="0"/>
+    <xf borderId="7" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="4" numFmtId="0"/>
+    <xf borderId="4" fillId="11" fontId="11" numFmtId="0"/>
+    <xf borderId="6" fillId="11" fontId="16" numFmtId="0"/>
+    <xf borderId="9" fillId="29" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="4" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="4" numFmtId="0"/>
-    <xf borderId="8" fillId="0" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0"/>
-    <xf borderId="5" fillId="19" fontId="12" numFmtId="0"/>
-    <xf borderId="6" fillId="19" fontId="16" numFmtId="0"/>
-    <xf borderId="2" fillId="5" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="33" fontId="4" numFmtId="0"/>
-    <xf borderId="9" fillId="0" fontId="19" numFmtId="0"/>
-    <xf borderId="7" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="7" numFmtId="0"/>
     <xf borderId="0" fillId="32" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="5" numFmtId="0"/>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="33" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1192,7 +1195,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0" outlineLevelRow="5"/>
@@ -1347,10 +1350,10 @@
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -1367,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>11</v>
@@ -1376,13 +1379,13 @@
         <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
@@ -1458,22 +1461,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" s="8" t="n"/>
     </row>
@@ -1482,13 +1485,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
@@ -1506,13 +1509,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
@@ -1530,22 +1533,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" s="8" t="n"/>
     </row>
@@ -1554,22 +1557,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" s="8" t="n"/>
     </row>
@@ -1625,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1644,29 +1647,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="6" t="n"/>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="8" t="n"/>
       <c r="L2" s="4" t="n"/>
@@ -1676,31 +1679,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" s="8" t="n"/>
       <c r="L3" s="4" t="n"/>
@@ -1710,29 +1713,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="8" t="n"/>
       <c r="L4" s="4" t="n"/>
@@ -1790,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1809,29 +1812,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="n"/>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="8" t="n"/>
       <c r="L2" s="4" t="n"/>
@@ -1841,31 +1844,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" s="8" t="n"/>
       <c r="L3" s="4" t="n"/>
@@ -1875,29 +1878,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="8" t="n"/>
       <c r="L4" s="4" t="n"/>
@@ -1953,7 +1956,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1970,29 +1973,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="6" t="n"/>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2000,31 +2003,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2032,29 +2035,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" s="6" t="n"/>
       <c r="H4" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2086,10 +2089,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" t="n">
-        <v>15921919560</v>
+        <v>15921919562</v>
       </c>
     </row>
   </sheetData>

--- a/API_2/test_cases/api_test.xlsx
+++ b/API_2/test_cases/api_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9300" windowWidth="23040"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>CaseId</t>
   </si>
@@ -66,133 +66,136 @@
     <t>{'status':1,'code':'10001','data': None,'msg':'注册成功'}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>不输入手机号</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status':0,'code':'20103','data': None,'msg':'手机号不能为空'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>不输入密码</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18688775656','pwd':''}</t>
+  </si>
+  <si>
+    <t>{'status':0,'code':'20103','data': None,'msg':'密码不能为空'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+  </si>
+  <si>
+    <t>输入已存在的手机号</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'15921919560','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status':0,'code':'20110','data': None,'msg':'手机号码已被注册'}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
   </si>
   <si>
+    <t>输入错误的手机号</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'186887756569','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status':0,'code':'20109','data': None,'msg':'手机号码格式不正确'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>正常登录</t>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18688775656','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status':1,'code':'10001','data': None,'msg':'登录成功'}</t>
+  </si>
+  <si>
+    <t>{'status':0,'code':'20111','data': None,'msg':'用户名或密码错误'}</t>
+  </si>
+  <si>
+    <t>输入错误的密码</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18688775656','pwd':'1234567'}</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+  </si>
+  <si>
+    <t>recharge</t>
+  </si>
+  <si>
+    <t>正常充值</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'15921919560','amount':'1000'}</t>
+  </si>
+  <si>
+    <t>{'sql':'select LeaveAmount from member where mobilephone = "18688775656"'}</t>
+  </si>
+  <si>
+    <t>{'status':1,'code':'10001','data':{'id':1123888,'regname':'小蜜蜂','pwd':'E10ADC3949BA59ABBE56E057F20F883E','mobilephone':'15921919560','leaveamount':'expect_amount','type':'1','regtime':'2019-03-11 20:57:41.0'},'msg':'充值成功'}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1248,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15921919560","leaveamount":"7000.00","type":"1","regtime":"2019-05-07 18:12:47.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>不输入手机号</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>{'status':0,'code':'20103','data': None,'msg':'手机号不能为空'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>不输入密码</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'18688775656','pwd':''}</t>
-  </si>
-  <si>
-    <t>{'status':0,'code':'20103','data': None,'msg':'密码不能为空'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
-  </si>
-  <si>
-    <t>输入已存在的手机号</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'15921919560','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>{'status':0,'code':'20110','data': None,'msg':'手机号码已被注册'}</t>
-  </si>
-  <si>
-    <t>输入错误的手机号</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'186887756569','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>{'status':0,'code':'20109','data': None,'msg':'手机号码格式不正确'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>正常登录</t>
-  </si>
-  <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/login</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'18688775656','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>{'status':1,'code':'10001','data': None,'msg':'登录成功'}</t>
-  </si>
-  <si>
-    <t>{'status':0,'code':'20111','data': None,'msg':'用户名或密码错误'}</t>
-  </si>
-  <si>
-    <t>输入错误的密码</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'18688775656','pwd':'1234567'}</t>
-  </si>
-  <si>
-    <t>sql</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+    <t>不输入充值金额</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'15921919560','amount':''}</t>
+  </si>
+  <si>
+    <t>{'status':0,'code':'20115','data':None,'msg':'请输入金额'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'#normal_user#','pwd':'#normal_pwd#'}</t>
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>recharge</t>
-  </si>
-  <si>
-    <t>正常充值</t>
-  </si>
-  <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/recharge</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'18688775656','amount':'1000'}</t>
-  </si>
-  <si>
-    <t>{'sql':'select LeaveAmount from member where mobilephone = "18688775656"'}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1123888,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18688775656","leaveamount":"expect_amount","type":"1","regtime":"2019-03-11 20:57:41.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1123888,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18688775656","leaveamount":"219000.00","type":"1","regtime":"2019-03-11 20:57:41.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>不输入充值金额</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'18688775656','amount':''}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20115","data":None,"msg":"请输入金额"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'#normal_user#','pwd':'#normal_pwd#'}</t>
   </si>
   <si>
     <t>add_loan</t>
@@ -312,21 +315,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -340,16 +329,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -364,23 +344,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -401,14 +372,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -419,6 +382,38 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,6 +432,14 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -453,25 +456,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,157 +612,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,6 +670,45 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,45 +748,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -763,53 +766,53 @@
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0"/>
-    <xf borderId="6" fillId="12" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="5" numFmtId="0"/>
+    <xf borderId="4" fillId="8" fontId="10" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
-    <xf borderId="0" fillId="18" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
-    <xf borderId="0" fillId="19" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="8" fillId="27" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="5" fillId="18" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf borderId="5" fillId="0" fontId="19" numFmtId="0"/>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="4" numFmtId="0"/>
-    <xf borderId="7" fillId="0" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="4" numFmtId="0"/>
-    <xf borderId="4" fillId="11" fontId="11" numFmtId="0"/>
-    <xf borderId="6" fillId="11" fontId="16" numFmtId="0"/>
-    <xf borderId="9" fillId="29" fontId="20" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="4" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="33" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0"/>
+    <xf borderId="8" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="8" fillId="0" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="33" fontId="9" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="9" numFmtId="0"/>
+    <xf borderId="7" fillId="25" fontId="17" numFmtId="0"/>
+    <xf borderId="4" fillId="25" fontId="15" numFmtId="0"/>
+    <xf borderId="9" fillId="32" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="9" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1194,20 +1197,20 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="4" width="11.1090909090909"/>
-    <col customWidth="1" max="4" min="3" style="4" width="19.3363636363636"/>
-    <col customWidth="1" max="5" min="5" style="4" width="10.8909090909091"/>
-    <col customWidth="1" max="6" min="6" style="4" width="45.8909090909091"/>
-    <col customWidth="1" max="7" min="7" style="4" width="42.1090909090909"/>
-    <col customWidth="1" max="8" min="8" style="4" width="64.5545454545454"/>
-    <col customWidth="1" max="9" min="9" style="4" width="41.6636363636364"/>
-    <col customWidth="1" max="10" min="10" style="1" width="12.6636363636364"/>
+    <col customWidth="1" max="2" min="1" style="4" width="11.1083333333333"/>
+    <col customWidth="1" max="4" min="3" style="4" width="19.3333333333333"/>
+    <col customWidth="1" max="5" min="5" style="4" width="10.8916666666667"/>
+    <col customWidth="1" max="6" min="6" style="4" width="45.8916666666667"/>
+    <col customWidth="1" max="7" min="7" style="4" width="42.1083333333333"/>
+    <col customWidth="1" max="8" min="8" style="4" width="64.55833333333329"/>
+    <col customWidth="1" max="9" min="9" style="4" width="41.6666666666667"/>
+    <col customWidth="1" max="10" min="10" style="1" width="12.6666666666667"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="20.4" r="1" s="1" spans="1:10">
@@ -1266,11 +1269,9 @@
         <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="J2" s="13" t="n"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="n">
@@ -1298,10 +1299,7 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1312,7 +1310,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
@@ -1321,16 +1319,16 @@
         <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1341,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>11</v>
@@ -1350,16 +1348,16 @@
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" t="s">
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1384,16 +1382,16 @@
       <c r="G6" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
       <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="D2" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1412,18 +1410,18 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.890909090909091" defaultRowHeight="14" outlineLevelCol="0" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="8.890909090909091"/>
-    <col customWidth="1" max="2" min="2" style="4" width="11.8909090909091"/>
+    <col customWidth="1" max="1" min="1" style="4" width="8.891666666666669"/>
+    <col customWidth="1" max="2" min="2" style="4" width="11.8916666666667"/>
     <col customWidth="1" max="3" min="3" style="4" width="20"/>
-    <col customWidth="1" max="4" min="4" style="4" width="27.1090909090909"/>
-    <col customWidth="1" max="5" min="5" style="4" width="10.8909090909091"/>
-    <col customWidth="1" max="6" min="6" style="4" width="43.4454545454545"/>
-    <col customWidth="1" max="7" min="7" style="4" width="42.5545454545455"/>
-    <col customWidth="1" max="8" min="8" style="4" width="26.1090909090909"/>
-    <col customWidth="1" max="9" min="9" style="4" width="19.5545454545455"/>
-    <col customWidth="1" max="11" min="10" style="4" width="8.890909090909091"/>
+    <col customWidth="1" max="4" min="4" style="4" width="27.1083333333333"/>
+    <col customWidth="1" max="5" min="5" style="4" width="10.8916666666667"/>
+    <col customWidth="1" max="6" min="6" style="4" width="43.4416666666667"/>
+    <col customWidth="1" max="7" min="7" style="4" width="42.5583333333333"/>
+    <col customWidth="1" max="8" min="8" style="4" width="26.1083333333333"/>
+    <col customWidth="1" max="9" min="9" style="4" width="19.5583333333333"/>
+    <col customWidth="1" max="11" min="10" style="4" width="8.891666666666669"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="20.4" r="1" s="1" spans="1:10">
@@ -1512,7 +1510,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>36</v>
@@ -1521,10 +1519,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="J4" s="8" t="n"/>
     </row>
@@ -1593,19 +1591,19 @@
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.890909090909091" defaultRowHeight="14" outlineLevelCol="0" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="11.2181818181818"/>
-    <col customWidth="1" max="3" min="3" style="1" width="15.7818181818182"/>
-    <col customWidth="1" max="4" min="4" style="1" width="24.8909090909091"/>
-    <col customWidth="1" max="6" min="6" style="1" width="48.8909090909091"/>
-    <col customWidth="1" max="7" min="7" style="1" width="33.2181818181818"/>
-    <col customWidth="1" max="8" min="8" style="1" width="43.5545454545455"/>
-    <col customWidth="1" max="10" min="9" style="1" width="25.3363636363636"/>
+    <col customWidth="1" max="2" min="2" style="1" width="11.2166666666667"/>
+    <col customWidth="1" max="3" min="3" style="1" width="15.7833333333333"/>
+    <col customWidth="1" max="4" min="4" style="1" width="24.8916666666667"/>
+    <col customWidth="1" max="6" min="6" style="1" width="48.8916666666667"/>
+    <col customWidth="1" max="7" min="7" style="1" width="33.2166666666667"/>
+    <col customWidth="1" max="8" min="8" style="1" width="43.5583333333333"/>
+    <col customWidth="1" max="10" min="9" style="1" width="25.3333333333333"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="20.4" r="1" s="1" spans="1:12">
@@ -1653,23 +1651,23 @@
         <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G2" s="6" t="n"/>
       <c r="H2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="K2" s="8" t="n"/>
       <c r="L2" s="4" t="n"/>
@@ -1703,7 +1701,7 @@
         <v>51</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K3" s="8" t="n"/>
       <c r="L3" s="4" t="n"/>
@@ -1716,7 +1714,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>47</v>
@@ -1725,26 +1723,26 @@
         <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="K4" s="8" t="n"/>
       <c r="L4" s="4" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="D2" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/login" r:id="rId1"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/recharge" ref="D3" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/recharge" r:id="rId2"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/recharge" ref="D4" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/recharge" r:id="rId3"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId2"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1762,15 +1760,15 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.890909090909091" defaultRowHeight="14" outlineLevelCol="0" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="1" width="12.7818181818182"/>
-    <col customWidth="1" max="4" min="4" style="1" width="41.8909090909091"/>
-    <col customWidth="1" max="5" min="5" style="1" width="11.3363636363636"/>
+    <col customWidth="1" max="3" min="3" style="1" width="12.7833333333333"/>
+    <col customWidth="1" max="4" min="4" style="1" width="41.8916666666667"/>
+    <col customWidth="1" max="5" min="5" style="1" width="11.3333333333333"/>
     <col customWidth="1" max="6" min="6" style="1" width="86"/>
-    <col customWidth="1" max="7" min="7" style="1" width="42.8909090909091"/>
+    <col customWidth="1" max="7" min="7" style="1" width="42.8916666666667"/>
     <col customWidth="1" max="8" min="8" style="1" width="55"/>
-    <col customWidth="1" max="9" min="9" style="1" width="23.2181818181818"/>
+    <col customWidth="1" max="9" min="9" style="1" width="23.2166666666667"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="20.4" r="1" s="1" spans="1:12">
@@ -1818,7 +1816,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>12</v>
@@ -1831,10 +1829,10 @@
         <v>38</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K2" s="8" t="n"/>
       <c r="L2" s="4" t="n"/>
@@ -1844,31 +1842,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K3" s="8" t="n"/>
       <c r="L3" s="4" t="n"/>
@@ -1878,29 +1876,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K4" s="8" t="n"/>
       <c r="L4" s="4" t="n"/>
@@ -1927,13 +1925,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.890909090909091" defaultRowHeight="14" outlineLevelCol="0" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="6" min="6" style="1" width="73.8909090909091"/>
-    <col customWidth="1" max="7" min="7" style="1" width="51.2181818181818"/>
-    <col customWidth="1" max="8" min="8" style="1" width="26.1090909090909"/>
-    <col customWidth="1" max="9" min="9" style="1" width="40.6636363636364"/>
-    <col customWidth="1" max="10" min="10" style="1" width="26.5545454545455"/>
+    <col customWidth="1" max="6" min="6" style="1" width="73.89166666666669"/>
+    <col customWidth="1" max="7" min="7" style="1" width="51.2166666666667"/>
+    <col customWidth="1" max="8" min="8" style="1" width="26.1083333333333"/>
+    <col customWidth="1" max="9" min="9" style="1" width="40.6666666666667"/>
+    <col customWidth="1" max="10" min="10" style="1" width="26.5583333333333"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="20.4" r="1" s="1" spans="1:10">
@@ -1992,10 +1990,10 @@
         <v>38</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2003,31 +2001,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2035,29 +2033,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="6" t="n"/>
       <c r="H4" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2082,17 +2080,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.890909090909091" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="12.8909090909091"/>
+    <col customWidth="1" max="2" min="2" style="1" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" t="n">
-        <v>15921919562</v>
+        <v>15921919566</v>
       </c>
     </row>
   </sheetData>

--- a/API_2/test_cases/api_test.xlsx
+++ b/API_2/test_cases/api_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>CaseId</t>
   </si>
@@ -66,6 +66,9 @@
     <t>{'mobilephone':'tel','pwd':'123456'}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":None,"msg":"注册成功"}</t>
+  </si>
+  <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
     <t>{'mobilephone':'','pwd':'123456'}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"20103","data":None,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
   </si>
   <si>
@@ -90,6 +96,9 @@
     <t>{'mobilephone':'15921919560','pwd':''}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"20103","data":None,"msg":"密码不能为空"}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
   </si>
   <si>
@@ -99,6 +108,9 @@
     <t>{'mobilephone':'15921919560','pwd':'123456'}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"20110","data":None,"msg":"手机号码已被注册"}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
   </si>
   <si>
@@ -108,6 +120,9 @@
     <t>{'mobilephone':'159219195606','pwd':'123456'}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"20109","data":None,"msg":"手机号码格式不正确"}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
   </si>
   <si>
@@ -168,7 +183,7 @@
     <t>{'status':1,'code':'10001','data':{'id':1248,'regname':'小蜜蜂','pwd':'E10ADC3949BA59ABBE56E057F20F883E','mobilephone':'15921919560','leaveamount':'expect_amount','type':'1','regtime':'2019-03-11 20:57:41.0'},'msg':'充值成功'}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1248,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15921919560","leaveamount":"13000.00","type":"1","regtime":"2019-05-07 18:12:47.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1248,"regname":"test_lemon_4122","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15921919560","leaveamount":"14000.00","type":"1","regtime":"2019-05-07 18:12:47.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>FAILED</t>
@@ -312,14 +327,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -328,6 +335,28 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -350,15 +379,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -368,50 +396,6 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,7 +417,38 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -453,187 +468,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,30 +677,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -701,22 +692,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,8 +715,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,57 +735,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
-    <xf borderId="0" fillId="17" fontId="6" numFmtId="0"/>
-    <xf borderId="7" fillId="11" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="5" numFmtId="0"/>
+    <xf borderId="4" fillId="12" fontId="11" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
-    <xf borderId="0" fillId="18" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="6" fillId="8" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="8" fillId="29" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0"/>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="5" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="4" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="4" numFmtId="0"/>
+    <xf borderId="9" fillId="19" fontId="18" numFmtId="0"/>
+    <xf borderId="4" fillId="19" fontId="14" numFmtId="0"/>
+    <xf borderId="6" fillId="23" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="33" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="4" numFmtId="0"/>
+    <xf borderId="7" fillId="0" fontId="17" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0"/>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0"/>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="5" numFmtId="0"/>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0"/>
-    <xf borderId="7" fillId="3" fontId="18" numFmtId="0"/>
-    <xf borderId="9" fillId="16" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="5" numFmtId="0"/>
-    <xf borderId="8" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="20" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="16" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="33" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1194,8 +1209,8 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="5"/>
@@ -1270,7 +1285,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="13" t="n"/>
     </row>
@@ -1282,25 +1297,25 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1311,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
@@ -1320,16 +1335,16 @@
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1340,25 +1355,25 @@
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1369,7 +1384,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>12</v>
@@ -1378,16 +1393,16 @@
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1463,23 +1478,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G2" s="6" t="n"/>
       <c r="H2" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K2" s="8" t="n"/>
     </row>
@@ -1488,22 +1503,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K3" s="8" t="n"/>
     </row>
@@ -1512,22 +1527,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K4" s="8" t="n"/>
     </row>
@@ -1536,22 +1551,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K5" s="8" t="n"/>
     </row>
@@ -1560,22 +1575,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K6" s="8" t="n"/>
     </row>
@@ -1596,7 +1611,7 @@
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1650,29 +1665,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G2" s="6" t="n"/>
       <c r="H2" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="8" t="n"/>
       <c r="L2" s="4" t="n"/>
@@ -1682,31 +1697,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K3" s="8" t="n"/>
       <c r="L3" s="4" t="n"/>
@@ -1716,29 +1731,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="8" t="n"/>
       <c r="L4" s="4" t="n"/>
@@ -1815,29 +1830,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G2" s="6" t="n"/>
       <c r="H2" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="8" t="n"/>
       <c r="L2" s="4" t="n"/>
@@ -1847,31 +1862,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="8" t="n"/>
       <c r="L3" s="4" t="n"/>
@@ -1881,29 +1896,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="8" t="n"/>
       <c r="L4" s="4" t="n"/>
@@ -1976,29 +1991,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G2" s="6" t="n"/>
       <c r="H2" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2006,31 +2021,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2038,29 +2053,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G4" s="6" t="n"/>
       <c r="H4" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2092,10 +2107,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B1" t="n">
-        <v>15921919568</v>
+        <v>15921919573</v>
       </c>
     </row>
   </sheetData>

--- a/API_2/test_cases/api_test.xlsx
+++ b/API_2/test_cases/api_test.xlsx
@@ -2110,7 +2110,7 @@
         <v>86</v>
       </c>
       <c r="B1" t="n">
-        <v>15921919573</v>
+        <v>15921919574</v>
       </c>
     </row>
   </sheetData>

--- a/API_2/test_cases/api_test.xlsx
+++ b/API_2/test_cases/api_test.xlsx
@@ -2110,7 +2110,7 @@
         <v>86</v>
       </c>
       <c r="B1" t="n">
-        <v>15921919574</v>
+        <v>15921919577</v>
       </c>
     </row>
   </sheetData>
